--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3066855.726071576</v>
+        <v>3171035.360522647</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>107.012029196409</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>50.73003670622381</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>170.6515992328632</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>169.6447800754162</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>191.7041177524638</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>240.3635537979645</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734129911</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.4052339083159</v>
+        <v>163.6898441249722</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.32117841962576</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>73.51915625034214</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>154.005867998081</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>188.8068092694749</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>152.0688644383635</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>112.5005260950205</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>50.06209150957608</v>
+        <v>8.168913835719746</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E19" t="n">
-        <v>20.92847288552893</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701333</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>29.95900124023935</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>30.85302310518107</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>105.3305008047043</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>44.75138076689361</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.82891891787487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>121.3986907513303</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>43.73846614325492</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>26.07046444232116</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>72.01539947949706</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>79.36266849663059</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>1.632620083627539</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4328,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4343,19 +4345,19 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4364,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2373.501580131336</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2373.501580131336</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.1280466398576</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C4" t="n">
-        <v>382.1280466398576</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398576</v>
+        <v>2170.872131622244</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>2022.959038039851</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S4" t="n">
-        <v>1665.088738085553</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T4" t="n">
-        <v>1443.322122655079</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U4" t="n">
-        <v>1154.219255780723</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V4" t="n">
-        <v>899.5347675748355</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W4" t="n">
-        <v>610.1175975378749</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="X4" t="n">
-        <v>382.1280466398576</v>
+        <v>2842.931782505268</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.1280466398576</v>
+        <v>2671.573418792726</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1811.579746109089</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3082.814353126381</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149023</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>2198.179586173211</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.181730276492</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760412</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.73918161049</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046027</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>680.6375233676422</v>
       </c>
       <c r="X7" t="n">
-        <v>880.2242361621296</v>
+        <v>452.6479724696248</v>
       </c>
       <c r="Y7" t="n">
-        <v>880.2242361621296</v>
+        <v>231.8553933260947</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3285.887459569145</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3079.909711953368</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3079.909711953368</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>3079.909711953368</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>3079.909711953368</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X8" t="n">
-        <v>3079.909711953368</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484846</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484846</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V10" t="n">
-        <v>1358.280565658501</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="W10" t="n">
-        <v>1068.863395621541</v>
+        <v>1037.17743850423</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.863395621541</v>
+        <v>846.4634897471846</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>625.6709106036544</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2266.280484787188</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2046.67901981013</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1757.603793154328</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1502.919304948441</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1213.50213491148</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>985.5125840134626</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876693</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5476,10 +5478,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5841,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2794.50775589162</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309227</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>3175.341129796738</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>3006.404946868831</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>2856.288307456495</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>3356.989594626978</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856866</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577797</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>489.836033045444</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>341.9229394630509</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>3445.398957336243</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>3445.398957336243</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.30868757553</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3007.624207651098</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>2884.99926749824</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>2734.882628085904</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481338</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,19 +7013,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7202,10 +7204,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1021.293348608258</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>852.3571656803514</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429802</v>
@@ -7357,25 +7359,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1202.941813438498</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1897.296768897751</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1642.612280691864</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615669</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334542</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.78353867329</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667835</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.01152569472</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740628</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385794</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590561</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118216</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>2418.621364762391</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>2913.94697097815</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>3511.325458604702</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>4138.923422159309</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301209</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022983</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566168</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334425</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606223</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400691</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635737</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>699.7311804011399</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888042</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.718751792983116e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9644,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>27.76311574357379</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>68.52575990662405</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>98.55338150863628</v>
+        <v>140.4465591824926</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E19" t="n">
-        <v>125.5054897610403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>137.2878198583885</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>194.8566322838561</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>40.09054721822694</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>103.8640922513187</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>47.43691740069067</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>45.8481303472975</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>137.2878198583897</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>260.4525338942698</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>76.60007353871529</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393071</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>206.8218058926136</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>284.8903782529634</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>728780.5960364576</v>
+        <v>728780.5960364575</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>716622.3221339647</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.0670231446</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314471</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808621.2046808826</v>
+        <v>-808621.2046808831</v>
       </c>
       <c r="C6" t="n">
-        <v>520123.5410467098</v>
+        <v>520123.5410467097</v>
       </c>
       <c r="D6" t="n">
-        <v>520123.5410467096</v>
+        <v>520123.54104671</v>
       </c>
       <c r="E6" t="n">
-        <v>268551.2508456993</v>
+        <v>268551.2508457</v>
       </c>
       <c r="F6" t="n">
-        <v>593963.7126530553</v>
+        <v>593963.7126530551</v>
       </c>
       <c r="G6" t="n">
-        <v>593963.7126530549</v>
+        <v>593963.7126530547</v>
       </c>
       <c r="H6" t="n">
         <v>593963.712653055</v>
       </c>
       <c r="I6" t="n">
-        <v>593963.7126530544</v>
+        <v>593963.7126530549</v>
       </c>
       <c r="J6" t="n">
-        <v>376432.5102557774</v>
+        <v>376432.5102557772</v>
       </c>
       <c r="K6" t="n">
-        <v>593963.7126530549</v>
+        <v>593963.7126530547</v>
       </c>
       <c r="L6" t="n">
-        <v>593963.7126530545</v>
+        <v>593963.7126530547</v>
       </c>
       <c r="M6" t="n">
-        <v>508908.684717543</v>
+        <v>508908.6847175431</v>
       </c>
       <c r="N6" t="n">
         <v>593963.7126530549</v>
       </c>
       <c r="O6" t="n">
-        <v>593963.7126530546</v>
+        <v>593963.7126530551</v>
       </c>
       <c r="P6" t="n">
         <v>593963.7126530549</v>
@@ -26701,7 +26703,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,49 +26959,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>258.2608625745985</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>298.5109320111892</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>19.1174260985787</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>48.93987327667858</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>173.5687740185437</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>10.63161816093751</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.42674627362136</v>
+        <v>16.14213605696514</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>69.86658336855004</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>312.7187824057115</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>98.13177532574701</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>36.90284611956224</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28156,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28858,16 +28860,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29290,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837926</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753693</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>369.1789913099994</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>270.3182595810212</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>504.2882996232035</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753693</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,13 +33988,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543341</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34457,7 +34459,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34469,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004593</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.286271753351</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>226.582746865555</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>130.3364854949997</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>370.3138922088733</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>237.286271753351</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,13 +37636,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997513</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38105,7 +38107,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3171035.360522647</v>
+        <v>3167022.750508655</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>107.012029196409</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>373.56899354093</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.4523732079633</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.6447800754162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>240.3635537979645</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567413</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.6898441249722</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>93.68345300136487</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>56.93571561939623</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>73.51915625034214</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>172.9087972266224</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>188.8068092694749</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.0688644383635</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>187.4608242120711</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>8.168913835719746</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>108.9065924712584</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>140.9357387834177</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>30.85302310518107</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>33.82891891787487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>43.73846614325492</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>26.07046444232116</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833814</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>101.6969570046975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.50962791956</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962486</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034579</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622244</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039851</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.06909054194</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609172</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609172</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609172</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V4" t="n">
-        <v>3070.921333403285</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W4" t="n">
-        <v>3070.921333403285</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="X4" t="n">
-        <v>2842.931782505268</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792726</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363905</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>77.5441625467829</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218346</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218346</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609173</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609173</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3082.814353126381</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2751.75146578281</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218346</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218346</v>
+        <v>703.3872246129065</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218346</v>
+        <v>553.2705852005707</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218346</v>
+        <v>405.3574916181776</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218346</v>
+        <v>258.4675441202672</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218346</v>
+        <v>258.4675441202672</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218346</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760412</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.73918161049</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046027</v>
+        <v>1161.740577577774</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676422</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696248</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="Y7" t="n">
-        <v>231.8553933260947</v>
+        <v>872.3234075408134</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3268.094997751193</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3062.117250135415</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3062.117250135415</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2731.054362791845</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450755</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189675</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,37 +4898,37 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.6709106036544</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1662.808740112058</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1662.808740112058</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.594608541191</v>
+        <v>1662.808740112058</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.594608541191</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.17743850423</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X10" t="n">
-        <v>846.4634897471846</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y10" t="n">
-        <v>625.6709106036544</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5190,13 +5190,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5889,25 +5889,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796738</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868831</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456495</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874102</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305899</v>
+        <v>2304.603751475798</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.33114932884</v>
+        <v>2085.00228649874</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673038</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467151</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430191</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X25" t="n">
-        <v>3356.989594626978</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>127.9872882175424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>127.9872882175424</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>127.9872882175424</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2402.78281474869</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2183.181349771631</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1894.106123115829</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1639.421634909942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3999.301626420637</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192514</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590561</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118216</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2418.621364762391</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2913.94697097815</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3511.325458604702</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4138.923422159309</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.718751792983116e-12</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.76311574357379</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>29.94462611521715</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>140.4465591824926</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>39.70888054695399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>40.09054721822693</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>194.8566322838561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>47.43691740069067</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>137.2878198583897</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.4525338942698</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>65.5498640939303</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>728780.5960364575</v>
+        <v>728780.5960364576</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287557</v>
-      </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
       <c r="K2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231446</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314471</v>
+        <v>90354.06702314487</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179357</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808621.2046808831</v>
+        <v>-808621.2046808829</v>
       </c>
       <c r="C6" t="n">
-        <v>520123.5410467097</v>
+        <v>520123.5410467101</v>
       </c>
       <c r="D6" t="n">
-        <v>520123.54104671</v>
+        <v>520123.5410467099</v>
       </c>
       <c r="E6" t="n">
-        <v>268551.2508457</v>
+        <v>268203.8715913427</v>
       </c>
       <c r="F6" t="n">
-        <v>593963.7126530551</v>
+        <v>593616.3333986979</v>
       </c>
       <c r="G6" t="n">
-        <v>593963.7126530547</v>
+        <v>593616.333398698</v>
       </c>
       <c r="H6" t="n">
-        <v>593963.712653055</v>
+        <v>593616.3333986982</v>
       </c>
       <c r="I6" t="n">
-        <v>593963.7126530549</v>
+        <v>593616.3333986975</v>
       </c>
       <c r="J6" t="n">
-        <v>376432.5102557772</v>
+        <v>376085.1310014205</v>
       </c>
       <c r="K6" t="n">
-        <v>593963.7126530547</v>
+        <v>593616.333398698</v>
       </c>
       <c r="L6" t="n">
-        <v>593963.7126530547</v>
+        <v>593616.333398698</v>
       </c>
       <c r="M6" t="n">
-        <v>508908.6847175431</v>
+        <v>508561.3054631859</v>
       </c>
       <c r="N6" t="n">
-        <v>593963.7126530549</v>
+        <v>593616.333398698</v>
       </c>
       <c r="O6" t="n">
-        <v>593963.7126530551</v>
+        <v>593616.3333986978</v>
       </c>
       <c r="P6" t="n">
-        <v>593963.7126530549</v>
+        <v>593616.333398698</v>
       </c>
     </row>
   </sheetData>
@@ -26703,7 +26703,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>258.2608625745985</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>12.66894511512356</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>20.07062512862774</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.93987327667858</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292584</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.63161816093751</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>362.4386851003795</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.14213605696514</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>51.07156191295591</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>52.25204616877962</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>312.7187824057115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>16.86022810481953</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>36.90284611956224</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28860,16 +28860,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.607718096583367e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095028</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32001,7 +32001,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
         <v>867.846407116256</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>509.0826837242976</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,34 +32311,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,22 +32548,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32572,10 +32572,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>270.3182595810212</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081759</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543341</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129119</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013295</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701983</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3364854949997</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997513</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3167022.750508655</v>
+        <v>3168783.28081144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>210.6046526660757</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>373.56899354093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>210.1089145855752</v>
       </c>
       <c r="W4" t="n">
-        <v>266.4523732079633</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.79925355567413</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>93.68345300136487</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.751300331319228</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>68.11015198958169</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.93571561939623</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>71.98153210089556</v>
       </c>
       <c r="S10" t="n">
-        <v>172.9087972266224</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>54.32649042089646</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>187.4608242120711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>140.9357387834177</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>46.35517081455633</v>
       </c>
     </row>
     <row r="41">
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>31.26260713376563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627876</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1891.353293732296</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y2" t="n">
-        <v>1321.167210201447</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4479,28 +4479,28 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,19 +4512,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1191.821308835076</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="W4" t="n">
         <v>922.6774975139006</v>
@@ -4552,25 +4552,25 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4585,19 +4585,19 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4637,22 +4637,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>872.3234075408134</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
-        <v>703.3872246129065</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>553.2705852005707</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>405.3574916181776</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>258.4675441202672</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>258.4675441202672</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1832.664797582062</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1610.898182151588</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783661</v>
+        <v>1321.795315277232</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577774</v>
+        <v>1067.110827071345</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408134</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="X7" t="n">
-        <v>872.3234075408134</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="Y7" t="n">
-        <v>872.3234075408134</v>
+        <v>777.6936570343842</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678284</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>177.3071485155245</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3268.094997751193</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3062.117250135415</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3062.117250135415</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.054362791845</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2378.28570752173</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="S10" t="n">
-        <v>1662.808740112058</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="T10" t="n">
-        <v>1662.808740112058</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="U10" t="n">
-        <v>1662.808740112058</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V10" t="n">
-        <v>1408.124251906171</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.955532171245</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2392.08784073087</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2209.233006385774</v>
       </c>
       <c r="T13" t="n">
-        <v>2190.563011941682</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U13" t="n">
-        <v>1901.48778528588</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V13" t="n">
-        <v>1646.803297079993</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W13" t="n">
-        <v>1357.386127043032</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.396576145015</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.6039970014847</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5749,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.603751475798</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2085.00228649874</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1795.927059842937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1541.24257163705</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1251.82540160009</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6615,10 +6615,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7086,7 +7086,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>12.04875628922525</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>29.94462611521715</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>40.09054721822693</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>172.2294825375384</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>716622.3221339649</v>
+        <v>716622.322133965</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>716622.322133965</v>
+        <v>716622.3221339649</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.274728755</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314489</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314487</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26438,13 +26438,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179357</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-808621.2046808829</v>
+        <v>-808621.204680883</v>
       </c>
       <c r="C6" t="n">
-        <v>520123.5410467101</v>
+        <v>520123.5410467102</v>
       </c>
       <c r="D6" t="n">
         <v>520123.5410467099</v>
       </c>
       <c r="E6" t="n">
-        <v>268203.8715913427</v>
+        <v>268516.5129202641</v>
       </c>
       <c r="F6" t="n">
-        <v>593616.3333986979</v>
+        <v>593928.9747276187</v>
       </c>
       <c r="G6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="H6" t="n">
-        <v>593616.3333986982</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="I6" t="n">
-        <v>593616.3333986975</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="J6" t="n">
-        <v>376085.1310014205</v>
+        <v>376397.7723303416</v>
       </c>
       <c r="K6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276193</v>
       </c>
       <c r="L6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="M6" t="n">
-        <v>508561.3054631859</v>
+        <v>508873.9467921075</v>
       </c>
       <c r="N6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276192</v>
       </c>
       <c r="O6" t="n">
-        <v>593616.3333986978</v>
+        <v>593928.9747276187</v>
       </c>
       <c r="P6" t="n">
-        <v>593616.333398698</v>
+        <v>593928.9747276192</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>154.6682391049319</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.66894511512356</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>42.02872873825282</v>
       </c>
       <c r="W4" t="n">
-        <v>20.07062512862774</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>362.4386851003795</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>51.07156191295591</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>185.0177250001227</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>226.4976123977387</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.25204616877962</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>16.95062056915177</v>
       </c>
       <c r="S10" t="n">
-        <v>16.86022810481953</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28335,13 +28335,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
